--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="add" sheetId="5" r:id="rId5"/>
+    <sheet name="audit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="173">
   <si>
     <t>case_id</t>
   </si>
@@ -377,6 +379,165 @@
   </si>
   <si>
     <t>{"member_id":#member_id#,"amount":"5万"}</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败-用户id为空</t>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败-标题为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"标题为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款金额为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-利率为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"利率为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款期限为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款日期类型为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款日期类型为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-竞标期限为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"竞标期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-无权访问</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败-借款金额范围错误</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款金额负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":2}</t>
+  </si>
+  <si>
+    <t>select status from future.loan where id={};</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not":False}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":5}</t>
+  </si>
+  <si>
+    <t>项目不在审核中状态</t>
+  </si>
+  <si>
+    <t>{"loan_id":#pass_loan_id#,"approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"项目不在审核中状态"}</t>
+  </si>
+  <si>
+    <t>参数approved_or_not为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"approved_or_not为空"}</t>
+  </si>
+  <si>
+    <t>项目id为空</t>
+  </si>
+  <si>
+    <t>{"approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"项目id为空"}</t>
+  </si>
+  <si>
+    <t>项目id不存在</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#+10000,"approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"项目不存在"}</t>
   </si>
 </sst>
 </file>
@@ -992,9 +1153,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1346,8 +1510,8 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2522,4 +2686,510 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B2" sqref="$A2:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="10.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="71.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="52.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" ht="43.2" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="3" max="3" width="26.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="52.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="36.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="54.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="withdraw" sheetId="4" r:id="rId4"/>
     <sheet name="add" sheetId="5" r:id="rId5"/>
     <sheet name="audit" sheetId="6" r:id="rId6"/>
+    <sheet name="invest" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="192">
   <si>
     <t>case_id</t>
   </si>
@@ -538,6 +539,63 @@
   </si>
   <si>
     <t>{"code":2,"msg":"项目不存在"}</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>正常投资</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>投资人id为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>标id为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>投资金额为非100的整数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":301}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"投资金额必须大于100，并且可以被100整除"}</t>
+  </si>
+  <si>
+    <t>投资金额大于可投金额</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":100000}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"该标可投金额不足"}</t>
+  </si>
+  <si>
+    <t>投资金额超过用户余额</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":300000}</t>
+  </si>
+  <si>
+    <t>{"code":1002,"msg":"余额不足"}</t>
   </si>
 </sst>
 </file>
@@ -3001,8 +3059,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -3192,4 +3250,221 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="65.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="64.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>